--- a/recibo-caja-reintegro.xlsx
+++ b/recibo-caja-reintegro.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaute\OneDrive\Desktop\appg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE99102-FB2A-423B-A638-2DA32ABAAEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="numbers">{"";"One";"Two";"Three";"Four";"Five";"Six";"Seven";"Eight";"Nine";"Ten";"Eleven";"Twelve";"Thirteen";"Fourteen";"Fifteen";"Sixteen";"Seventeen";"Eighteen";"Nineteen"}</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$27</definedName>
-    <definedName name="numbers">{"";"One";"Two";"Three";"Four";"Five";"Six";"Seven";"Eight";"Nine";"Ten";"Eleven";"Twelve";"Thirteen";"Fourteen";"Fifteen";"Sixteen";"Seventeen";"Eighteen";"Nineteen"}</definedName>
     <definedName name="tens">{"";"";"Twenty";"Thirty";"Forty";"Fifty";"Sixty";"Seventy";"Eighty";"Ninety"}</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2009-2016 Vertex42 LLC"</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>RECIBO DE CAJA</t>
   </si>
@@ -53,16 +54,10 @@
     <t xml:space="preserve">RECIBI DE: </t>
   </si>
   <si>
-    <t>EMPRESA PORTUARIA QUETZAL</t>
-  </si>
-  <si>
     <t>LA CANTIDAD DE:</t>
   </si>
   <si>
     <t>POR CONCEPTO DE :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINTEGRO DEL BARCO GEMINI HONOR VIAJE A2205 SEGÚN </t>
   </si>
   <si>
     <r>
@@ -78,21 +73,12 @@
     </r>
   </si>
   <si>
-    <t>BANRURAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">CUENTA : </t>
   </si>
   <si>
-    <t>NO. 3693024565</t>
-  </si>
-  <si>
     <t>A NOMBRE DE:</t>
   </si>
   <si>
-    <t>GUATEMALA MARITIMA S.A.</t>
-  </si>
-  <si>
     <t xml:space="preserve">NUMERO DE IDENTIFICACION TRIBUTARIA (NIT): </t>
   </si>
   <si>
@@ -109,24 +95,6 @@
   </si>
   <si>
     <t>No. 006-22</t>
-  </si>
-  <si>
-    <t>ENVIO DE FACTURACION NO. 18690 PAGO EFECTUADO POR GUATEMALA MARITIMA, S.A.</t>
-  </si>
-  <si>
-    <t>DEPOSITO NO. 21999690 AUTORIZACION 1765946 CHEQUE NO. 4700315</t>
-  </si>
-  <si>
-    <t>4090151-3</t>
-  </si>
-  <si>
-    <t>LUIS EDMUNDO COREA SAAVEDRA</t>
-  </si>
-  <si>
-    <t>UN MIL SESENTA Y UN QUETZALES CON NOVENTA Y SIETE CENTAVOS (Q. 1,061.97)</t>
-  </si>
-  <si>
-    <t>5166 5008</t>
   </si>
   <si>
     <t xml:space="preserve">TELEFONO: </t>
@@ -135,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,15 +193,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -241,7 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -255,7 +218,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,54 +238,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE69D44-8091-4253-98C6-50EE5084DAFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552451" y="190500"/>
-          <a:ext cx="1543049" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -341,7 +256,7 @@
         <xdr:cNvPr id="3" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6D3D6A-E3DF-4D14-8C2E-1D1A9775A6DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -383,49 +298,25 @@
             <a:rPr lang="es-GT" sz="1450">
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>GUATEMALA MARITIMA,</a:t>
+            <a:t>NAVIERA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1450" baseline="0">
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> EJEMPLO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1450">
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-GT" sz="1450" baseline="0">
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> S.A.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1050" baseline="0">
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>AGENTES MARITIMOS Y ESTIVADORES</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="800" baseline="0">
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Calle Principal Barrio Los Encuentros Plaza Martita</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="800" baseline="0">
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2do Nivel Oficina No. 9 San Jose, Escuintla.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="800" baseline="0">
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Telefono 502 77652759</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -454,7 +345,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582B7746-DFC6-4CFB-9B42-28410FAF6C56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +395,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B276538B-8D29-4961-997F-8630785496E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,7 +445,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95928E0C-5058-4D2D-A88E-101F1176D4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +487,13 @@
     <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -648,7 +545,13 @@
     <xdr:ext cx="542925" cy="256160"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -700,7 +603,13 @@
     <xdr:ext cx="480644" cy="256160"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+        <xdr:cNvPr id="9" name="CuadroTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1007,62 +916,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
+    <row r="2" spans="2:9" ht="27" customHeight="1">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="91.5" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:9" ht="25.5" customHeight="1">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:9" ht="25.5" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="2:9" ht="28.5" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1077,176 +986,137 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="23.25" customHeight="1"/>
+    <row r="14" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+    </row>
+    <row r="15" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" t="s">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="19.5" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D18" s="14"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="14"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
